--- a/pa-temp-fix-system.com/php/export/pmo/DPMO250508012.xlsx
+++ b/pa-temp-fix-system.com/php/export/pmo/DPMO250508012.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <si>
     <t>_id</t>
   </si>
@@ -5818,12 +5818,6 @@
       </rPr>
       <t>:1Pcs</t>
     </r>
-  </si>
-  <si>
-    <t>ObjectId('681c80d451cea82da1a946d4')</t>
-  </si>
-  <si>
-    <t>a25050800ux2790</t>
   </si>
   <si>
     <t>ObjectId('681c80958e3d396fd913a531')</t>
@@ -8209,10 +8203,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
@@ -8664,99 +8658,88 @@
         <v>119</v>
       </c>
       <c r="C40" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C41" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C42" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C44" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C45" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C46" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C47" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C48" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D48" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D47" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
